--- a/Anastasia.xlsx
+++ b/Anastasia.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flofl\Library\Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D8A6584-3720-4BFB-9F0E-7F07E323688E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC41B76-9979-4D55-9249-A930E6E7CF92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6336" yWindow="324" windowWidth="15720" windowHeight="8148" xr2:uid="{185E2889-62F7-4166-AA10-A4D8D073D2DE}"/>
+    <workbookView xWindow="6864" yWindow="4356" windowWidth="15720" windowHeight="8148" xr2:uid="{185E2889-62F7-4166-AA10-A4D8D073D2DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>N</t>
   </si>
@@ -76,6 +79,33 @@
   </si>
   <si>
     <t>стр.250</t>
+  </si>
+  <si>
+    <t>Иван Гончаров</t>
+  </si>
+  <si>
+    <t>Обломов</t>
+  </si>
+  <si>
+    <t>Михаил Лермонтов</t>
+  </si>
+  <si>
+    <t>Герой нашего времени</t>
+  </si>
+  <si>
+    <t>Антон Павлович Чехов</t>
+  </si>
+  <si>
+    <t>Хмурые люди</t>
+  </si>
+  <si>
+    <t>стр. 20</t>
+  </si>
+  <si>
+    <t>стр.31</t>
+  </si>
+  <si>
+    <t>стр. 50</t>
   </si>
 </sst>
 </file>
@@ -455,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA8B8801-FBB6-4849-802D-A25A1114A5C3}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -538,7 +568,59 @@
         <v>13</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>43885</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>44346</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>43994</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:E1" xr:uid="{AA8B8801-FBB6-4849-802D-A25A1114A5C3}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Anastasia.xlsx
+++ b/Anastasia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flofl\Library\Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC41B76-9979-4D55-9249-A930E6E7CF92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C99E1ABF-9542-47A8-8A7B-874B3A6D1438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6864" yWindow="4356" windowWidth="15720" windowHeight="8148" xr2:uid="{185E2889-62F7-4166-AA10-A4D8D073D2DE}"/>
+    <workbookView xWindow="6324" yWindow="4284" windowWidth="15720" windowHeight="8148" xr2:uid="{185E2889-62F7-4166-AA10-A4D8D073D2DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -139,7 +139,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -147,29 +147,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -488,7 +504,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -501,30 +517,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>44492</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -535,13 +551,13 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>44510</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -552,13 +568,13 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>44573</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -569,13 +585,13 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>43885</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -586,13 +602,13 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>44346</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -603,13 +619,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>43994</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="5" t="s">

--- a/Anastasia.xlsx
+++ b/Anastasia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flofl\Library\Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C99E1ABF-9542-47A8-8A7B-874B3A6D1438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A2700A-094E-49C2-BB66-3E499B74E95F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6324" yWindow="4284" windowWidth="15720" windowHeight="8148" xr2:uid="{185E2889-62F7-4166-AA10-A4D8D073D2DE}"/>
   </bookViews>
@@ -105,7 +105,7 @@
     <t>стр.31</t>
   </si>
   <si>
-    <t>стр. 50</t>
+    <t>стр. 50.</t>
   </si>
 </sst>
 </file>
@@ -504,7 +504,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
